--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/81.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/81.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2048550459553083</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.318802082610085</v>
+        <v>-1.318444370827813</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.166698574747304</v>
+        <v>-0.1680973008183946</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1284599152464052</v>
+        <v>-0.1299316437220412</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2266851465505159</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.387386381632431</v>
+        <v>-1.388536899528067</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2343250822220131</v>
+        <v>-0.2361267815661945</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1328050183649495</v>
+        <v>-0.1340708800597673</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2518348300913228</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490832248921403</v>
+        <v>-1.49251422432213</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2811283838241824</v>
+        <v>-0.2821664780168184</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.13740124975513</v>
+        <v>-0.138985401933766</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2682567834318271</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.642693310904908</v>
+        <v>-1.645613407086725</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2917896549839977</v>
+        <v>-0.2922831512387248</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1477529907196727</v>
+        <v>-0.1492466199166723</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2713863891349667</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.737686959795609</v>
+        <v>-1.739868271643427</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2908274832920889</v>
+        <v>-0.2914436235864523</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.165642959977577</v>
+        <v>-0.1666533132564858</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2631015233206035</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.577715330667107</v>
+        <v>-1.580398899058197</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2237616342842887</v>
+        <v>-0.2242098690481976</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1729490406244842</v>
+        <v>-0.1729183796145751</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2523302166821494</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419758567904059</v>
+        <v>-1.421065310945422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1467849788354003</v>
+        <v>-0.1482508671186726</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1523915635044897</v>
+        <v>-0.152946381779035</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2471493642767127</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150588482008403</v>
+        <v>-1.151067377782222</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005626069358256347</v>
+        <v>-0.006639342733346984</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1299944257899502</v>
+        <v>-0.1298177599709503</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2505694293148247</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.779895412159503</v>
+        <v>-0.7796340635512303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0802159980986297</v>
+        <v>0.07968454059353892</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.117492033987499</v>
+        <v>-0.1164627000834084</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2605834934186801</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4048908202981492</v>
+        <v>-0.4040045711069676</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1237049905344362</v>
+        <v>0.1217879473910731</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07295910716669281</v>
+        <v>-0.07303064952314733</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2733369506658658</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06479497016245202</v>
+        <v>0.0650942800210883</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1365344331092509</v>
+        <v>0.1354072759830694</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02783093264491649</v>
+        <v>0.02792437572273464</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.2810795531538834</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6058917127493977</v>
+        <v>0.6053996765427614</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05584195526899988</v>
+        <v>0.05527983675400003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.178510815722876</v>
+        <v>0.179823398956603</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2747689197507932</v>
       </c>
       <c r="E14" t="n">
-        <v>1.169968152239155</v>
+        <v>1.169827987622428</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09192805196377862</v>
+        <v>-0.09114984633132429</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3073936408516596</v>
+        <v>0.3086945437006592</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2499346125348413</v>
       </c>
       <c r="E15" t="n">
-        <v>1.818736141290163</v>
+        <v>1.816858519445254</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2611943472390059</v>
+        <v>-0.2587692073600066</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4895390203367925</v>
+        <v>0.4897682478870652</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2072672215368726</v>
       </c>
       <c r="E16" t="n">
-        <v>2.44590855902854</v>
+        <v>2.445039830414449</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4978258013806696</v>
+        <v>-0.4957992546304884</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6071385938190337</v>
+        <v>0.6076335501218517</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.1509250048954473</v>
       </c>
       <c r="E17" t="n">
-        <v>3.057090530075285</v>
+        <v>3.056334225164194</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6319691797809972</v>
+        <v>-0.6306697369800885</v>
       </c>
       <c r="G17" t="n">
-        <v>0.794010148974438</v>
+        <v>0.7938364032516199</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.08887461731355679</v>
       </c>
       <c r="E18" t="n">
-        <v>3.656127821101852</v>
+        <v>3.657846297704851</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7546453404753279</v>
+        <v>-0.7540481808061463</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9365254431280361</v>
+        <v>0.9354610680697637</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.02781587231381873</v>
       </c>
       <c r="E19" t="n">
-        <v>4.189928703378526</v>
+        <v>4.191853046762343</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9130065365595581</v>
+        <v>-0.9120312244348311</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088920882712813</v>
+        <v>1.087963091165177</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.02962324441932395</v>
       </c>
       <c r="E20" t="n">
-        <v>4.732898687666108</v>
+        <v>4.73521724403447</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.12792707558941</v>
+        <v>-1.127296334814137</v>
       </c>
       <c r="G20" t="n">
-        <v>1.247877778418134</v>
+        <v>1.247168195045953</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.0823023547960131</v>
       </c>
       <c r="E21" t="n">
-        <v>5.191399049702257</v>
+        <v>5.195723712147529</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.284436930694367</v>
+        <v>-1.283955114824368</v>
       </c>
       <c r="G21" t="n">
-        <v>1.423766851833723</v>
+        <v>1.423414980243815</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.1278727786397185</v>
       </c>
       <c r="E22" t="n">
-        <v>5.594570889333422</v>
+        <v>5.599670837314966</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.491214781521221</v>
+        <v>-1.491225001857857</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539344258710056</v>
+        <v>1.538862442840056</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.1635382180333802</v>
       </c>
       <c r="E23" t="n">
-        <v>5.865871185393712</v>
+        <v>5.871771239729075</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.670605050258809</v>
+        <v>-1.671524880556082</v>
       </c>
       <c r="G23" t="n">
-        <v>1.700149575298467</v>
+        <v>1.700061972413013</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.1881597365063833</v>
       </c>
       <c r="E24" t="n">
-        <v>6.170172948452812</v>
+        <v>6.176439474858992</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.843505405232308</v>
+        <v>-1.843855816774126</v>
       </c>
       <c r="G24" t="n">
-        <v>1.814211452256437</v>
+        <v>1.813287241814892</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.2021797030075947</v>
       </c>
       <c r="E25" t="n">
-        <v>6.381389345476029</v>
+        <v>6.388561101698572</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.978292664840727</v>
+        <v>-1.979413981774544</v>
       </c>
       <c r="G25" t="n">
-        <v>1.917143382617409</v>
+        <v>1.915646833324228</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2070858142422236</v>
       </c>
       <c r="E26" t="n">
-        <v>6.48176473162982</v>
+        <v>6.487669166109455</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.08511416331588</v>
+        <v>-2.085882878635743</v>
       </c>
       <c r="G26" t="n">
-        <v>1.98038682572321</v>
+        <v>1.979964871824938</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.2050904303914594</v>
       </c>
       <c r="E27" t="n">
-        <v>6.534878361080897</v>
+        <v>6.54111714657335</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.174083653783492</v>
+        <v>-2.173467513489129</v>
       </c>
       <c r="G27" t="n">
-        <v>2.062518910981098</v>
+        <v>2.06202541472637</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.1980517684343209</v>
       </c>
       <c r="E28" t="n">
-        <v>6.64513827281014</v>
+        <v>6.651432540130047</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233840502048203</v>
+        <v>-2.232513318333567</v>
       </c>
       <c r="G28" t="n">
-        <v>2.092073204437271</v>
+        <v>2.092235269775362</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.1873417749590412</v>
       </c>
       <c r="E29" t="n">
-        <v>6.581494776527429</v>
+        <v>6.588613971018701</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293629471370915</v>
+        <v>-2.293125754779551</v>
       </c>
       <c r="G29" t="n">
-        <v>2.137994636992532</v>
+        <v>2.138045738675713</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.1737400717554899</v>
       </c>
       <c r="E30" t="n">
-        <v>6.547388053123802</v>
+        <v>6.555714707386255</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328813710265632</v>
+        <v>-2.328289553000996</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12243928463199</v>
+        <v>2.122464105449536</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.1576655578488487</v>
       </c>
       <c r="E31" t="n">
-        <v>6.458336799963099</v>
+        <v>6.466537890089733</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310820077593274</v>
+        <v>-2.309739642006001</v>
       </c>
       <c r="G31" t="n">
-        <v>2.105352341824086</v>
+        <v>2.10466757926945</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.1392231982559481</v>
       </c>
       <c r="E32" t="n">
-        <v>6.283411358287509</v>
+        <v>6.290942286340417</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316355119905908</v>
+        <v>-2.315522162470045</v>
       </c>
       <c r="G32" t="n">
-        <v>2.042484131077648</v>
+        <v>2.042070937467921</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.1177960248109341</v>
       </c>
       <c r="E33" t="n">
-        <v>6.098922601616468</v>
+        <v>6.107958839251102</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.339712969264266</v>
+        <v>-2.33760684989313</v>
       </c>
       <c r="G33" t="n">
-        <v>1.976231528856484</v>
+        <v>1.97685204929512</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.09265954890965229</v>
       </c>
       <c r="E34" t="n">
-        <v>5.859670361151624</v>
+        <v>5.868792741623621</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382241250056254</v>
+        <v>-2.381603209040527</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89302776829987</v>
+        <v>1.893137271906688</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.06326939704735084</v>
       </c>
       <c r="E35" t="n">
-        <v>5.63473681231432</v>
+        <v>5.643802250910772</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369784119744621</v>
+        <v>-2.369270182816622</v>
       </c>
       <c r="G35" t="n">
-        <v>1.823914931868616</v>
+        <v>1.824865423175797</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.02955146235317828</v>
       </c>
       <c r="E36" t="n">
-        <v>5.444713013330643</v>
+        <v>5.453953657698005</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.32951599339736</v>
+        <v>-2.33077820497195</v>
       </c>
       <c r="G36" t="n">
-        <v>1.736570474926185</v>
+        <v>1.73678802209173</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.007529952472779288</v>
       </c>
       <c r="E37" t="n">
-        <v>5.082340757551832</v>
+        <v>5.091823769902284</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.269286089551194</v>
+        <v>-2.270614003289876</v>
       </c>
       <c r="G37" t="n">
-        <v>1.649347201975299</v>
+        <v>1.649855298710935</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.04618092983087674</v>
       </c>
       <c r="E38" t="n">
-        <v>4.80673331962336</v>
+        <v>4.817753762613539</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.163738483035359</v>
+        <v>-2.165971626590403</v>
       </c>
       <c r="G38" t="n">
-        <v>1.549447791499144</v>
+        <v>1.550471285210871</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.08434528962844388</v>
       </c>
       <c r="E39" t="n">
-        <v>4.513599464411621</v>
+        <v>4.523920544366255</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146017879356</v>
+        <v>-2.148151009616817</v>
       </c>
       <c r="G39" t="n">
-        <v>1.436951086094629</v>
+        <v>1.438871049334174</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.1204495502442356</v>
       </c>
       <c r="E40" t="n">
-        <v>4.244975436501966</v>
+        <v>4.255413320303872</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.117000153573235</v>
+        <v>-2.119169785036325</v>
       </c>
       <c r="G40" t="n">
-        <v>1.382041597491735</v>
+        <v>1.382343827446553</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.1540318941447529</v>
       </c>
       <c r="E41" t="n">
-        <v>3.95112469767759</v>
+        <v>3.960379942525861</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.027267787978122</v>
+        <v>-2.029449829849986</v>
       </c>
       <c r="G41" t="n">
-        <v>1.261903000379403</v>
+        <v>1.262070905909858</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.1848458328097884</v>
       </c>
       <c r="E42" t="n">
-        <v>3.696482090286477</v>
+        <v>3.705619071239383</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.932494606349148</v>
+        <v>-1.934632846778284</v>
       </c>
       <c r="G42" t="n">
-        <v>1.157005845288068</v>
+        <v>1.157226312549795</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.2124809302725153</v>
       </c>
       <c r="E43" t="n">
-        <v>3.425305898313913</v>
+        <v>3.435203564322183</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865031624260621</v>
+        <v>-1.867190305363029</v>
       </c>
       <c r="G43" t="n">
-        <v>1.064013922330002</v>
+        <v>1.064384774545093</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.2366127338780419</v>
       </c>
       <c r="E44" t="n">
-        <v>3.156522725162349</v>
+        <v>3.16719275661071</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.824896362289631</v>
+        <v>-1.826812675408949</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9296632171007653</v>
+        <v>0.930882357256674</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.2574380602961087</v>
       </c>
       <c r="E45" t="n">
-        <v>2.898905999810055</v>
+        <v>2.909327823082961</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.742248150031608</v>
+        <v>-1.743321285378426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8094705982090702</v>
+        <v>0.81016120095607</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.2755810997352009</v>
       </c>
       <c r="E46" t="n">
-        <v>2.650543059257939</v>
+        <v>2.660153095792301</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.69420964774453</v>
+        <v>-1.694871049529712</v>
       </c>
       <c r="G46" t="n">
-        <v>0.768072394639445</v>
+        <v>0.7695397429708082</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.291526586892095</v>
       </c>
       <c r="E47" t="n">
-        <v>2.350308990180111</v>
+        <v>2.360308859554745</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647023813542543</v>
+        <v>-1.648057527590906</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6616859904953827</v>
+        <v>0.6625240580995643</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.305721668581125</v>
       </c>
       <c r="E48" t="n">
-        <v>2.159146353685526</v>
+        <v>2.168601625122251</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613460228028734</v>
+        <v>-1.613737637166006</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5994529006684902</v>
+        <v>0.6003230893306718</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.3186719773486251</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961777052756488</v>
+        <v>1.971118440442122</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.564869827563292</v>
+        <v>-1.564983711314383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5387178201828702</v>
+        <v>0.5391704350910519</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.3307947766065357</v>
       </c>
       <c r="E50" t="n">
-        <v>1.849782603895245</v>
+        <v>1.858665536480334</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491924364893403</v>
+        <v>-1.491921444797221</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4773008972387958</v>
+        <v>0.4779360181583411</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3425187735036978</v>
       </c>
       <c r="E51" t="n">
-        <v>1.673925651537656</v>
+        <v>1.681736908824018</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.435113893676145</v>
+        <v>-1.434132741359055</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4187967702360842</v>
+        <v>0.4201531549125384</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3545813528044344</v>
       </c>
       <c r="E52" t="n">
-        <v>1.555568313096233</v>
+        <v>1.563252546198686</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.395400585603429</v>
+        <v>-1.394216486601702</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3383349799941968</v>
+        <v>0.3390752243762875</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.367444531470589</v>
       </c>
       <c r="E53" t="n">
-        <v>1.379876346172917</v>
+        <v>1.38561725526637</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.357624761347348</v>
+        <v>-1.356775013358439</v>
       </c>
       <c r="G53" t="n">
-        <v>0.271277891274942</v>
+        <v>0.2724984914789417</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3811879765107258</v>
       </c>
       <c r="E54" t="n">
-        <v>1.327237232351386</v>
+        <v>1.333556320488839</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.338883584052444</v>
+        <v>-1.337895131494899</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2198097360223195</v>
+        <v>0.2203820748739557</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3957218360255305</v>
       </c>
       <c r="E55" t="n">
-        <v>1.205215173201782</v>
+        <v>1.210629031522872</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.302407202597272</v>
+        <v>-1.301913706342545</v>
       </c>
       <c r="G55" t="n">
-        <v>0.162935022689062</v>
+        <v>0.1647644629469706</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4116814728928491</v>
       </c>
       <c r="E56" t="n">
-        <v>1.175307548107608</v>
+        <v>1.180476118349425</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.250213403443468</v>
+        <v>-1.248854098670832</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1021590608568965</v>
+        <v>0.1047929876128958</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4298470101557819</v>
       </c>
       <c r="E57" t="n">
-        <v>1.084661922431633</v>
+        <v>1.089664047191086</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.241242867972925</v>
+        <v>-1.240766892295288</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05896645818354449</v>
+        <v>0.06141787892818019</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4507496513202177</v>
       </c>
       <c r="E58" t="n">
-        <v>1.030399235133011</v>
+        <v>1.0361182435051</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.203969300260116</v>
+        <v>-1.203109331934571</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01850369352007107</v>
+        <v>-0.01544635281770826</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4749600284096447</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9215584901481311</v>
+        <v>0.9274468640987659</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.120048656090866</v>
+        <v>-1.119181387524866</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09530952334232318</v>
+        <v>-0.09182876869359684</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.5033529015312723</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8961843143762288</v>
+        <v>0.9037999252184086</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.10117607446778</v>
+        <v>-1.100159880996508</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1223525340821341</v>
+        <v>-0.1186527722197715</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.5359561889087718</v>
       </c>
       <c r="E61" t="n">
-        <v>0.763833875031537</v>
+        <v>0.7708888274068079</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.071604260434516</v>
+        <v>-1.070303357585516</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1510132781066719</v>
+        <v>-0.1474887220152183</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5718546809885657</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7241453877763658</v>
+        <v>0.7312587420752731</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.066032716919608</v>
+        <v>-1.065182968930699</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2261721736823789</v>
+        <v>-0.2227469008611071</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.6093455722491408</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6326777550252086</v>
+        <v>0.6404247701955702</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.101241776631871</v>
+        <v>-1.099791948877599</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2417348262833748</v>
+        <v>-0.2376101904265577</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.6472675016914133</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5417664005966876</v>
+        <v>0.5513530763615941</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.087822474628329</v>
+        <v>-1.085855789849875</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2927343060988156</v>
+        <v>-0.2878884064850896</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6847423192726079</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4570237493522558</v>
+        <v>0.466343236316526</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.054984533015702</v>
+        <v>-1.053674869878157</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3254846448259887</v>
+        <v>-0.3203715564116264</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.7203155041681165</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4084275086944507</v>
+        <v>0.4175717898878119</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.07111368427597</v>
+        <v>-1.069306144739425</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3543103742847991</v>
+        <v>-0.3489870389453459</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7520627537385072</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3797317235157311</v>
+        <v>0.3893344598096376</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.089946844600602</v>
+        <v>-1.087612227703239</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3882375117732445</v>
+        <v>-0.3820644284448825</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7787244242270963</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3005503954495705</v>
+        <v>0.3100188073191135</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.104896277003416</v>
+        <v>-1.103101877899689</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3982154804265146</v>
+        <v>-0.3927008787871524</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8000773423515136</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1957802645421441</v>
+        <v>0.205841455936596</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146158696100587</v>
+        <v>-1.144618345364678</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4219967437312355</v>
+        <v>-0.4157039364594189</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8159571400962231</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1323484752326157</v>
+        <v>0.1424972695125221</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194594331468392</v>
+        <v>-1.192505002650301</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4384441854753219</v>
+        <v>-0.4328638816718689</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.824910211776698</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08209361994353828</v>
+        <v>0.09137514565744488</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.280325435270369</v>
+        <v>-1.279284420981551</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4990580819693966</v>
+        <v>-0.4934763181178526</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8254268582963867</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.004982188150165611</v>
+        <v>0.005073163051922598</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.316175456094541</v>
+        <v>-1.315343228682723</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4926075895037619</v>
+        <v>-0.4876989078221269</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8165003545524271</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.01821168390188933</v>
+        <v>-0.008562226069073741</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.306574179848725</v>
+        <v>-1.305470383491998</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5424594715197486</v>
+        <v>-0.5377391360418408</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7980077540648131</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01183902590519351</v>
+        <v>0.02138920046782731</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346502114990805</v>
+        <v>-1.345812972291897</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5270238431026618</v>
+        <v>-0.523455485568481</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7707459085215372</v>
       </c>
       <c r="E75" t="n">
-        <v>0.01734194715982839</v>
+        <v>0.02697826455982581</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396755510231792</v>
+        <v>-1.396237193159519</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4778494234008568</v>
+        <v>-0.4741890828369487</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7361414638514501</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06951092549608712</v>
+        <v>0.07803906639508482</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.343114803419897</v>
+        <v>-1.342305936777534</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4883325686935813</v>
+        <v>-0.4845963056289459</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6951225253370144</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1829274611978748</v>
+        <v>0.191208853969509</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.34140070696117</v>
+        <v>-1.340618121184443</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4338202131714141</v>
+        <v>-0.4304664827065968</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6484175203575593</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2679533617719429</v>
+        <v>0.2752579823707592</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307816680774089</v>
+        <v>-1.306569799704453</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4350787746257774</v>
+        <v>-0.4321090368088691</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.5963304256221889</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3606050935248271</v>
+        <v>0.3669679831050072</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.323112144574448</v>
+        <v>-1.320923532486176</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4029825374433315</v>
+        <v>-0.4004055525628776</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5395279145947752</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4638363337444358</v>
+        <v>0.4690063640343435</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338394467941989</v>
+        <v>-1.337572460866808</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3448113014053471</v>
+        <v>-0.3425555271048931</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4786578918220526</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5633663520535909</v>
+        <v>0.5670953148777717</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286827029419185</v>
+        <v>-1.28569403210064</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.293032155909361</v>
+        <v>-0.2913939819513615</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4141557123605885</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6996516210032816</v>
+        <v>0.7024651336744626</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221894310672202</v>
+        <v>-1.220158313492112</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2599518463136426</v>
+        <v>-0.2581034254305522</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3460774114812358</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8554504326879669</v>
+        <v>0.8575937832854209</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.166053311387308</v>
+        <v>-1.164418057525491</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2164059120022906</v>
+        <v>-0.215040767037291</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2758152225009094</v>
       </c>
       <c r="E84" t="n">
-        <v>1.024986836860012</v>
+        <v>1.026496526586012</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.07496967128406</v>
+        <v>-1.073357778191697</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1659568703171224</v>
+        <v>-0.1657583037767588</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.20523206661262</v>
       </c>
       <c r="E85" t="n">
-        <v>1.120284175753623</v>
+        <v>1.119841781182078</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.004306263780261</v>
+        <v>-1.002114731595807</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1311712245512226</v>
+        <v>-0.1315683576319498</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1363567888503571</v>
       </c>
       <c r="E86" t="n">
-        <v>1.285760186184851</v>
+        <v>1.284513305115215</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.927753022277736</v>
+        <v>-0.9258169985091911</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04624898739160908</v>
+        <v>-0.04678628508906348</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.07037172989066943</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383469524524643</v>
+        <v>1.38269277894028</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8270929267462176</v>
+        <v>-0.8257861837048543</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01762036442507131</v>
+        <v>-0.0174845799526168</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.008692634898681155</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470700097715984</v>
+        <v>1.469771507130166</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.698978086913252</v>
+        <v>-0.6987444792187066</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03372952693218763</v>
+        <v>0.03364338409482402</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.0461790191709299</v>
       </c>
       <c r="E89" t="n">
-        <v>1.568355414276412</v>
+        <v>1.567254538015867</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5668860760806511</v>
+        <v>-0.5665254442021966</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07882457226799371</v>
+        <v>0.07950495467835715</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09103185754707346</v>
       </c>
       <c r="E90" t="n">
-        <v>1.629233579474941</v>
+        <v>1.626932543683669</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4384135244654129</v>
+        <v>-0.4384558658600492</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0922351139829901</v>
+        <v>0.09234753768599008</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1222295170806794</v>
       </c>
       <c r="E91" t="n">
-        <v>1.673356232782202</v>
+        <v>1.670694565112475</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2786769630795466</v>
+        <v>-0.2781294450454559</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1066180477265317</v>
+        <v>0.106469122821259</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1367642458891975</v>
       </c>
       <c r="E92" t="n">
-        <v>1.703440523695376</v>
+        <v>1.70029850020374</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1190309246753168</v>
+        <v>-0.1195755226132258</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1031781744243508</v>
+        <v>0.1037227723622597</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1340342269663419</v>
       </c>
       <c r="E93" t="n">
-        <v>1.699355309137013</v>
+        <v>1.696576837620014</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03947773626609518</v>
+        <v>0.03824545567736824</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09900243688435192</v>
+        <v>0.09930466683917002</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1171315066033888</v>
       </c>
       <c r="E94" t="n">
-        <v>1.648057979511027</v>
+        <v>1.644788931835482</v>
       </c>
       <c r="F94" t="n">
-        <v>0.15020632343252</v>
+        <v>0.1475972174940662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06036664430272593</v>
+        <v>0.06017975814708962</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09261608354891919</v>
       </c>
       <c r="E95" t="n">
-        <v>1.558051854898869</v>
+        <v>1.554369613613598</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2351446211211335</v>
+        <v>0.232131081861498</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01114696311010279</v>
+        <v>0.01180836489528442</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06677840081034161</v>
       </c>
       <c r="E96" t="n">
-        <v>1.434974180979539</v>
+        <v>1.431395603108721</v>
       </c>
       <c r="F96" t="n">
-        <v>0.314615038709294</v>
+        <v>0.3114029329092949</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02916058453561366</v>
+        <v>-0.02798816591861398</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04443763713430148</v>
       </c>
       <c r="E97" t="n">
-        <v>1.281191695708398</v>
+        <v>1.276737088983036</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3641646907704625</v>
+        <v>0.3614767422350996</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04957497694269909</v>
+        <v>-0.04860112486606299</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.02706865074374957</v>
       </c>
       <c r="E98" t="n">
-        <v>1.147906825585525</v>
+        <v>1.144721000651162</v>
       </c>
       <c r="F98" t="n">
-        <v>0.383298621001821</v>
+        <v>0.3809698442968217</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08688358580968908</v>
+        <v>-0.08570532700032575</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0141939989902534</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9942046429593843</v>
+        <v>0.9913896702401123</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3780774890287315</v>
+        <v>0.376310830838732</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1271984336958601</v>
+        <v>-0.1261019375795876</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.00239851322559142</v>
       </c>
       <c r="E100" t="n">
-        <v>0.885401859224868</v>
+        <v>0.8838834092103229</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3469492637305581</v>
+        <v>0.3461097360782855</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1414295224379472</v>
+        <v>-0.140473190938402</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.008576859203251443</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7450007147069058</v>
+        <v>0.7440414631111787</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3477552102767397</v>
+        <v>0.3477245492668306</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1340562795788582</v>
+        <v>-0.1330882676945858</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.02304341792461739</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6318338472286634</v>
+        <v>0.6300467483653911</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3054619972273874</v>
+        <v>0.3050575639062057</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1950016069895691</v>
+        <v>-0.1945154109752965</v>
       </c>
     </row>
   </sheetData>
